--- a/xlsx/country_comparison/conjoint_a_positive.xlsx
+++ b/xlsx/country_comparison/conjoint_a_positive.xlsx
@@ -32,7 +32,7 @@
     <t xml:space="preserve">United States</t>
   </si>
   <si>
-    <t xml:space="preserve">Conjoint: &gt;&gt;C+R+G&lt;&lt; vs. C+R</t>
+    <t xml:space="preserve">Conjoint: &gt;&gt;C+NR+GCS&lt;&lt; vs. C+NR</t>
   </si>
 </sst>
 </file>
@@ -389,19 +389,19 @@
         <v>6</v>
       </c>
       <c r="B2" t="n">
-        <v>0.641791044776119</v>
+        <v>0.802816901408451</v>
       </c>
       <c r="C2" t="n">
-        <v>0.774193548387097</v>
+        <v>0.718232044198895</v>
       </c>
       <c r="D2" t="n">
-        <v>0.724137931034483</v>
+        <v>0.778688524590164</v>
       </c>
       <c r="E2" t="n">
-        <v>0.676470588235294</v>
+        <v>0.695652173913043</v>
       </c>
       <c r="F2" t="n">
-        <v>0.534883720930233</v>
+        <v>0.540890072270825</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/conjoint_a_positive.xlsx
+++ b/xlsx/country_comparison/conjoint_a_positive.xlsx
@@ -389,19 +389,19 @@
         <v>6</v>
       </c>
       <c r="B2" t="n">
-        <v>0.802816901408451</v>
+        <v>0.782258064516129</v>
       </c>
       <c r="C2" t="n">
-        <v>0.718232044198895</v>
+        <v>0.717305151915456</v>
       </c>
       <c r="D2" t="n">
-        <v>0.778688524590164</v>
+        <v>0.801104972375691</v>
       </c>
       <c r="E2" t="n">
-        <v>0.695652173913043</v>
+        <v>0.661490683229814</v>
       </c>
       <c r="F2" t="n">
-        <v>0.540890072270825</v>
+        <v>0.541808550889141</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/conjoint_a_positive.xlsx
+++ b/xlsx/country_comparison/conjoint_a_positive.xlsx
@@ -12,11 +12,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t xml:space="preserve"/>
   </si>
   <si>
+    <t xml:space="preserve">United States</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Europe</t>
+  </si>
+  <si>
     <t xml:space="preserve">France</t>
   </si>
   <si>
@@ -29,10 +35,7 @@
     <t xml:space="preserve">United Kingdom</t>
   </si>
   <si>
-    <t xml:space="preserve">United States</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Conjoint: &gt;&gt;C+NR+GCS&lt;&lt; vs. C+NR</t>
+    <t xml:space="preserve">C+NR+GCS preferred to C+NR</t>
   </si>
 </sst>
 </file>
@@ -383,25 +386,31 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>0.782258064516129</v>
+        <v>0.540334377126678</v>
       </c>
       <c r="C2" t="n">
-        <v>0.717305151915456</v>
+        <v>0.732801058256552</v>
       </c>
       <c r="D2" t="n">
-        <v>0.801104972375691</v>
+        <v>0.788948273734533</v>
       </c>
       <c r="E2" t="n">
-        <v>0.661490683229814</v>
+        <v>0.709122563432032</v>
       </c>
       <c r="F2" t="n">
-        <v>0.541808550889141</v>
+        <v>0.798611869881155</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.697707624460728</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/conjoint_a_positive.xlsx
+++ b/xlsx/country_comparison/conjoint_a_positive.xlsx
@@ -395,22 +395,22 @@
         <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>0.540334377126678</v>
+        <v>0.54769087768906</v>
       </c>
       <c r="C2" t="n">
-        <v>0.732801058256552</v>
+        <v>0.73638352999918</v>
       </c>
       <c r="D2" t="n">
-        <v>0.788948273734533</v>
+        <v>0.786530605346286</v>
       </c>
       <c r="E2" t="n">
-        <v>0.709122563432032</v>
+        <v>0.714087756610439</v>
       </c>
       <c r="F2" t="n">
-        <v>0.798611869881155</v>
+        <v>0.795391539043858</v>
       </c>
       <c r="G2" t="n">
-        <v>0.697707624460728</v>
+        <v>0.683372336610581</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/conjoint_a_positive.xlsx
+++ b/xlsx/country_comparison/conjoint_a_positive.xlsx
@@ -395,22 +395,22 @@
         <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>0.54769087768906</v>
+        <v>0.547746186051635</v>
       </c>
       <c r="C2" t="n">
-        <v>0.73638352999918</v>
+        <v>0.735351301009053</v>
       </c>
       <c r="D2" t="n">
-        <v>0.786530605346286</v>
+        <v>0.786517033810842</v>
       </c>
       <c r="E2" t="n">
-        <v>0.714087756610439</v>
+        <v>0.714098080786382</v>
       </c>
       <c r="F2" t="n">
-        <v>0.795391539043858</v>
+        <v>0.782294412865101</v>
       </c>
       <c r="G2" t="n">
-        <v>0.683372336610581</v>
+        <v>0.683359692303094</v>
       </c>
     </row>
   </sheetData>
